--- a/Stocks/PYPL.xlsx
+++ b/Stocks/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Financials/Ações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="14_{9D4B891F-B0B1-4E01-A8B4-5EB67C77C311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C52D95-5AA8-4942-B865-1066FF090A34}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="14_{9D4B891F-B0B1-4E01-A8B4-5EB67C77C311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AFFF89-2515-4352-8AE8-901B6145B65B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7BE11683-4F0E-45D9-8C65-74CCE666DCF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7BE11683-4F0E-45D9-8C65-74CCE666DCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>PYPL</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>ROE</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CFC</t>
   </si>
 </sst>
 </file>
@@ -294,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -306,7 +318,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,9 +763,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +776,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -776,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>4</v>
       </c>
@@ -785,7 +796,7 @@
         <v>78412.971243100008</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>5</v>
       </c>
@@ -797,7 +808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>6</v>
       </c>
@@ -808,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>7</v>
       </c>
@@ -817,7 +828,7 @@
         <v>74523.971243100008</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M8" t="s">
         <v>8</v>
       </c>
@@ -830,25 +841,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19FF2D4-5B5F-4C5D-9E40-2FF7AF63C1DD}">
-  <dimension ref="A2:AR52"/>
+  <dimension ref="A2:AR57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="21.19921875" customWidth="1"/>
+    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="21.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.09765625" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1158,7 @@
         <v>64203.878626047765</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1305,7 +1316,7 @@
         <v>24553.561966482313</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>2870.9830537103403</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1632,7 @@
         <v>3275.5151486742825</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1794,7 @@
         <v>2366.5498605137986</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1942,7 +1953,7 @@
         <v>3889.3049946420806</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>2693.6020800430697</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2271,7 @@
         <v>-109.88954576183477</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2310,124 +2321,124 @@
       <c r="N11" s="2">
         <v>76</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="2">
         <f>SUM(P4:P10)</f>
         <v>23681</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="2">
         <f>SUM(Q4:Q10)</f>
         <v>24743</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="2">
         <f t="shared" ref="R11:AF11" si="23">SUM(R4:R10)</f>
         <v>25170.29</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="2">
         <f t="shared" si="23"/>
         <v>25605.450100000005</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="2">
         <f t="shared" si="23"/>
         <v>26048.630945000001</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="2">
         <f t="shared" si="23"/>
         <v>26499.986125330001</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="2">
         <f t="shared" si="23"/>
         <v>26959.672234880905</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="2">
         <f t="shared" si="23"/>
         <v>27427.848930493263</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="2">
         <f t="shared" si="23"/>
         <v>27904.678992527024</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="2">
         <f t="shared" si="23"/>
         <v>28390.328386635691</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="2">
         <f t="shared" si="23"/>
         <v>28884.966326769121</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="2">
         <f t="shared" si="23"/>
         <v>29388.765339429221</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="2">
         <f t="shared" si="23"/>
         <v>29901.901329203771</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="2">
         <f t="shared" si="23"/>
         <v>30424.553645603668</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AD11" s="2">
         <f t="shared" si="23"/>
         <v>30956.905151229726</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AE11" s="2">
         <f t="shared" si="23"/>
         <v>31499.142291295444</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11" s="2">
         <f t="shared" si="23"/>
         <v>32051.455164532883</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="2">
         <f t="shared" ref="AG11" si="24">SUM(AG4:AG10)</f>
         <v>32614.037595509191</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH11" s="2">
         <f t="shared" ref="AH11" si="25">SUM(AH4:AH10)</f>
         <v>33187.087208381883</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11" s="2">
         <f t="shared" ref="AI11" si="26">SUM(AI4:AI10)</f>
         <v>33770.805502121657</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11" s="2">
         <f t="shared" ref="AJ11" si="27">SUM(AJ4:AJ10)</f>
         <v>34365.397927231941</v>
       </c>
-      <c r="AK11" s="11">
+      <c r="AK11" s="2">
         <f t="shared" ref="AK11" si="28">SUM(AK4:AK10)</f>
         <v>34971.073963995113</v>
       </c>
-      <c r="AL11" s="11">
+      <c r="AL11" s="2">
         <f t="shared" ref="AL11" si="29">SUM(AL4:AL10)</f>
         <v>35588.047202275731</v>
       </c>
-      <c r="AM11" s="11">
+      <c r="AM11" s="2">
         <f t="shared" ref="AM11" si="30">SUM(AM4:AM10)</f>
         <v>36216.535422911977</v>
       </c>
-      <c r="AN11" s="11">
+      <c r="AN11" s="2">
         <f t="shared" ref="AN11" si="31">SUM(AN4:AN10)</f>
         <v>36856.760680726838</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AO11" s="2">
         <f t="shared" ref="AO11" si="32">SUM(AO4:AO10)</f>
         <v>37508.94938919157</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="2">
         <f t="shared" ref="AP11" si="33">SUM(AP4:AP10)</f>
         <v>38173.332406774098</v>
       </c>
-      <c r="AQ11" s="11">
+      <c r="AQ11" s="2">
         <f t="shared" ref="AQ11" si="34">SUM(AQ4:AQ10)</f>
         <v>38850.145125006267</v>
       </c>
-      <c r="AR11" s="11">
+      <c r="AR11" s="2">
         <f t="shared" ref="AR11" si="35">SUM(AR4:AR10)</f>
         <v>39539.627558304055</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -2595,7 +2606,7 @@
         <v>24664.251067743709</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2747,7 +2758,7 @@
         <v>2737.9910081126832</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2914,7 +2925,7 @@
         <v>27402.242075856393</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3066,7 +3077,7 @@
         <v>6850.5605189640983</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -3227,7 +3238,7 @@
         <v>20551.681556892294</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3388,7 +3399,7 @@
         <v>18.636754982445972</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +3553,7 @@
         <v>1102.75</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>8.2063949499108002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3728,7 +3739,7 @@
         <v>3.6859920477665349E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>6.0577414914372081E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -4018,7 +4029,7 @@
         <v>4.1953884059432275E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -4163,7 +4174,7 @@
         <v>0.38415515690881213</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -4308,7 +4319,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -4438,10 +4449,10 @@
         <v>294350.78236816061</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4455,7 +4466,7 @@
         <v>14060</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -4467,7 +4478,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -4481,7 +4492,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -4493,7 +4504,7 @@
         <v>38935</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -4504,7 +4515,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -4515,7 +4526,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -4527,7 +4538,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -4541,7 +4552,7 @@
         <v>11563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -4552,7 +4563,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -4565,7 +4576,7 @@
         <v>82166</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -4576,7 +4587,7 @@
         <v>9676</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -4587,7 +4598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v>41935</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4609,7 +4620,7 @@
         <v>6392</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4620,7 +4631,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4633,7 +4644,7 @@
         <v>61115</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -4646,7 +4657,7 @@
         <v>21051</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -4659,7 +4670,7 @@
         <v>82166</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -4672,7 +4683,7 @@
         <v>5.1675875666334005E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -4683,6 +4694,26 @@
       <c r="Q52" s="4">
         <f>+Q16/Q48</f>
         <v>0.20170063179896441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4692,23 +4723,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010078CBFEB144F63F4E9EB43CF067A3FDD2" ma:contentTypeVersion="9" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f59182e7d3e0cf5298e8ad942a121699">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xmlns:ns4="02570eab-4ecf-4bb5-b806-a666b23f79b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f61c57c9eb7d1a1f1952f23e1a76f510" ns3:_="" ns4:_="">
     <xsd:import namespace="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
@@ -4903,32 +4917,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E3C5C91-6D09-4CFD-925C-8827B1AAD26E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
-    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E1F3D9-0675-4369-93B7-3D3C2C799294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49B53EB0-24E9-4FE6-84FD-65CBC44A7238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4945,4 +4951,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E1F3D9-0675-4369-93B7-3D3C2C799294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E3C5C91-6D09-4CFD-925C-8827B1AAD26E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
+    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>